--- a/employeeDetails.xlsx
+++ b/employeeDetails.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>Fname</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>Admin@1223</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>
@@ -205,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -224,9 +230,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -745,7 +761,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,7 +800,9 @@
         <v>34</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -797,7 +815,9 @@
         <v>34</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="12" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -810,28 +830,27 @@
         <v>34</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
